--- a/ig/nriss-patch-1/all-profiles.xlsx
+++ b/ig/nriss-patch-1/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:16:41+00:00</t>
+    <t>2023-09-01T07:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
